--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Inhba-Bambi.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Inhba-Bambi.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,7 +76,16 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>Neutro</t>
@@ -89,15 +98,6 @@
   </si>
   <si>
     <t>Bambi</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>5.46783848089973</v>
+        <v>0.05045533333333333</v>
       </c>
       <c r="H2">
-        <v>5.46783848089973</v>
+        <v>0.151366</v>
       </c>
       <c r="I2">
-        <v>0.4140722184627956</v>
+        <v>0.0033755102257448</v>
       </c>
       <c r="J2">
-        <v>0.4140722184627956</v>
+        <v>0.003375510225744801</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.20205507319631</v>
+        <v>2.760188</v>
       </c>
       <c r="N2">
-        <v>2.20205507319631</v>
+        <v>8.280564</v>
       </c>
       <c r="O2">
-        <v>0.3008251932132939</v>
+        <v>0.3388590190822334</v>
       </c>
       <c r="P2">
-        <v>0.3008251932132939</v>
+        <v>0.3388590190822334</v>
       </c>
       <c r="Q2">
-        <v>12.04048146628326</v>
+        <v>0.1392662056026666</v>
       </c>
       <c r="R2">
-        <v>12.04048146628326</v>
+        <v>1.253395850424</v>
       </c>
       <c r="S2">
-        <v>0.1245633551233278</v>
+        <v>0.001143822083997931</v>
       </c>
       <c r="T2">
-        <v>0.1245633551233278</v>
+        <v>0.001143822083997931</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>5.46783848089973</v>
+        <v>0.05045533333333333</v>
       </c>
       <c r="H3">
-        <v>5.46783848089973</v>
+        <v>0.151366</v>
       </c>
       <c r="I3">
-        <v>0.4140722184627956</v>
+        <v>0.0033755102257448</v>
       </c>
       <c r="J3">
-        <v>0.4140722184627956</v>
+        <v>0.003375510225744801</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.825706581674614</v>
+        <v>0.8595383333333334</v>
       </c>
       <c r="N3">
-        <v>0.825706581674614</v>
+        <v>2.578615</v>
       </c>
       <c r="O3">
-        <v>0.1128006946752736</v>
+        <v>0.1055226370438938</v>
       </c>
       <c r="P3">
-        <v>0.1128006946752736</v>
+        <v>0.1055226370438938</v>
       </c>
       <c r="Q3">
-        <v>4.51483022121263</v>
+        <v>0.04336829312111111</v>
       </c>
       <c r="R3">
-        <v>4.51483022121263</v>
+        <v>0.39031463809</v>
       </c>
       <c r="S3">
-        <v>0.04670763388833499</v>
+        <v>0.0003561927403892205</v>
       </c>
       <c r="T3">
-        <v>0.04670763388833499</v>
+        <v>0.0003561927403892206</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>5.46783848089973</v>
+        <v>0.05045533333333333</v>
       </c>
       <c r="H4">
-        <v>5.46783848089973</v>
+        <v>0.151366</v>
       </c>
       <c r="I4">
-        <v>0.4140722184627956</v>
+        <v>0.0033755102257448</v>
       </c>
       <c r="J4">
-        <v>0.4140722184627956</v>
+        <v>0.003375510225744801</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.31308460060731</v>
+        <v>1.444358333333333</v>
       </c>
       <c r="N4">
-        <v>1.31308460060731</v>
+        <v>4.333075</v>
       </c>
       <c r="O4">
-        <v>0.1793819480226417</v>
+        <v>0.1773190261085777</v>
       </c>
       <c r="P4">
-        <v>0.1793819480226417</v>
+        <v>0.1773190261085777</v>
       </c>
       <c r="Q4">
-        <v>7.179734507877503</v>
+        <v>0.07287558116111111</v>
       </c>
       <c r="R4">
-        <v>7.179734507877503</v>
+        <v>0.65588023045</v>
       </c>
       <c r="S4">
-        <v>0.07427708116991313</v>
+        <v>0.0005985421858486133</v>
       </c>
       <c r="T4">
-        <v>0.07427708116991313</v>
+        <v>0.0005985421858486133</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>27</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>5.46783848089973</v>
+        <v>0.05045533333333333</v>
       </c>
       <c r="H5">
-        <v>5.46783848089973</v>
+        <v>0.151366</v>
       </c>
       <c r="I5">
-        <v>0.4140722184627956</v>
+        <v>0.0033755102257448</v>
       </c>
       <c r="J5">
-        <v>0.4140722184627956</v>
+        <v>0.003375510225744801</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.78907989050154</v>
+        <v>1.806973666666667</v>
       </c>
       <c r="N5">
-        <v>1.78907989050154</v>
+        <v>5.420921</v>
       </c>
       <c r="O5">
-        <v>0.2444081940934112</v>
+        <v>0.2218360938436415</v>
       </c>
       <c r="P5">
-        <v>0.2444081940934112</v>
+        <v>0.2218360938436415</v>
       </c>
       <c r="Q5">
-        <v>9.782399870688195</v>
+        <v>0.09117145867622221</v>
       </c>
       <c r="R5">
-        <v>9.782399870688195</v>
+        <v>0.8205431280859999</v>
       </c>
       <c r="S5">
-        <v>0.1012026431387443</v>
+        <v>0.0007488100032084951</v>
       </c>
       <c r="T5">
-        <v>0.1012026431387443</v>
+        <v>0.0007488100032084952</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>5.46783848089973</v>
+        <v>0.05045533333333333</v>
       </c>
       <c r="H6">
-        <v>5.46783848089973</v>
+        <v>0.151366</v>
       </c>
       <c r="I6">
-        <v>0.4140722184627956</v>
+        <v>0.0033755102257448</v>
       </c>
       <c r="J6">
-        <v>0.4140722184627956</v>
+        <v>0.003375510225744801</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.695135889133433</v>
+        <v>0.7227113333333334</v>
       </c>
       <c r="N6">
-        <v>0.695135889133433</v>
+        <v>2.168134</v>
       </c>
       <c r="O6">
-        <v>0.09496328711458053</v>
+        <v>0.08872484537029592</v>
       </c>
       <c r="P6">
-        <v>0.09496328711458053</v>
+        <v>0.08872484537029593</v>
       </c>
       <c r="Q6">
-        <v>3.800890764058234</v>
+        <v>0.03646464122711111</v>
       </c>
       <c r="R6">
-        <v>3.800890764058234</v>
+        <v>0.328181771044</v>
       </c>
       <c r="S6">
-        <v>0.03932165896805378</v>
+        <v>0.0002994916228250601</v>
       </c>
       <c r="T6">
-        <v>0.03932165896805378</v>
+        <v>0.0002994916228250602</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>5.46783848089973</v>
+        <v>0.05045533333333333</v>
       </c>
       <c r="H7">
-        <v>5.46783848089973</v>
+        <v>0.151366</v>
       </c>
       <c r="I7">
-        <v>0.4140722184627956</v>
+        <v>0.0033755102257448</v>
       </c>
       <c r="J7">
-        <v>0.4140722184627956</v>
+        <v>0.003375510225744801</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.494986693767649</v>
+        <v>0.5517653333333333</v>
       </c>
       <c r="N7">
-        <v>0.494986693767649</v>
+        <v>1.655296</v>
       </c>
       <c r="O7">
-        <v>0.06762068288079912</v>
+        <v>0.06773837855135768</v>
       </c>
       <c r="P7">
-        <v>0.06762068288079912</v>
+        <v>0.06773837855135768</v>
       </c>
       <c r="Q7">
-        <v>2.706507291716082</v>
+        <v>0.02783950381511111</v>
       </c>
       <c r="R7">
-        <v>2.706507291716082</v>
+        <v>0.250555534336</v>
       </c>
       <c r="S7">
-        <v>0.02799984617442168</v>
+        <v>0.0002286515894754801</v>
       </c>
       <c r="T7">
-        <v>0.02799984617442168</v>
+        <v>0.0002286515894754802</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.92415863640736</v>
+        <v>5.776837666666666</v>
       </c>
       <c r="H8">
-        <v>6.92415863640736</v>
+        <v>17.330513</v>
       </c>
       <c r="I8">
-        <v>0.5243574289147146</v>
+        <v>0.3864759843617668</v>
       </c>
       <c r="J8">
-        <v>0.5243574289147146</v>
+        <v>0.3864759843617669</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.20205507319631</v>
+        <v>2.760188</v>
       </c>
       <c r="N8">
-        <v>2.20205507319631</v>
+        <v>8.280564</v>
       </c>
       <c r="O8">
-        <v>0.3008251932132939</v>
+        <v>0.3388590190822334</v>
       </c>
       <c r="P8">
-        <v>0.3008251932132939</v>
+        <v>0.3388590190822334</v>
       </c>
       <c r="Q8">
-        <v>15.24737865291687</v>
+        <v>15.94515800548133</v>
       </c>
       <c r="R8">
-        <v>15.24737865291687</v>
+        <v>143.506422049332</v>
       </c>
       <c r="S8">
-        <v>0.1577399248660951</v>
+        <v>0.1309608729596689</v>
       </c>
       <c r="T8">
-        <v>0.1577399248660951</v>
+        <v>0.1309608729596689</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.92415863640736</v>
+        <v>5.776837666666666</v>
       </c>
       <c r="H9">
-        <v>6.92415863640736</v>
+        <v>17.330513</v>
       </c>
       <c r="I9">
-        <v>0.5243574289147146</v>
+        <v>0.3864759843617668</v>
       </c>
       <c r="J9">
-        <v>0.5243574289147146</v>
+        <v>0.3864759843617669</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.825706581674614</v>
+        <v>0.8595383333333334</v>
       </c>
       <c r="N9">
-        <v>0.825706581674614</v>
+        <v>2.578615</v>
       </c>
       <c r="O9">
-        <v>0.1128006946752736</v>
+        <v>0.1055226370438938</v>
       </c>
       <c r="P9">
-        <v>0.1128006946752736</v>
+        <v>0.1055226370438938</v>
       </c>
       <c r="Q9">
-        <v>5.717323358640678</v>
+        <v>4.965413419943889</v>
       </c>
       <c r="R9">
-        <v>5.717323358640678</v>
+        <v>44.688720779495</v>
       </c>
       <c r="S9">
-        <v>0.0591478822397202</v>
+        <v>0.04078196502398829</v>
       </c>
       <c r="T9">
-        <v>0.0591478822397202</v>
+        <v>0.04078196502398829</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.92415863640736</v>
+        <v>5.776837666666666</v>
       </c>
       <c r="H10">
-        <v>6.92415863640736</v>
+        <v>17.330513</v>
       </c>
       <c r="I10">
-        <v>0.5243574289147146</v>
+        <v>0.3864759843617668</v>
       </c>
       <c r="J10">
-        <v>0.5243574289147146</v>
+        <v>0.3864759843617669</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.31308460060731</v>
+        <v>1.444358333333333</v>
       </c>
       <c r="N10">
-        <v>1.31308460060731</v>
+        <v>4.333075</v>
       </c>
       <c r="O10">
-        <v>0.1793819480226417</v>
+        <v>0.1773190261085777</v>
       </c>
       <c r="P10">
-        <v>0.1793819480226417</v>
+        <v>0.1773190261085777</v>
       </c>
       <c r="Q10">
-        <v>9.092006077628614</v>
+        <v>8.343823624163889</v>
       </c>
       <c r="R10">
-        <v>9.092006077628614</v>
+        <v>75.094412617475</v>
       </c>
       <c r="S10">
-        <v>0.09406025705886537</v>
+        <v>0.06852954516138239</v>
       </c>
       <c r="T10">
-        <v>0.09406025705886537</v>
+        <v>0.0685295451613824</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>27</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.92415863640736</v>
+        <v>5.776837666666666</v>
       </c>
       <c r="H11">
-        <v>6.92415863640736</v>
+        <v>17.330513</v>
       </c>
       <c r="I11">
-        <v>0.5243574289147146</v>
+        <v>0.3864759843617668</v>
       </c>
       <c r="J11">
-        <v>0.5243574289147146</v>
+        <v>0.3864759843617669</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.78907989050154</v>
+        <v>1.806973666666667</v>
       </c>
       <c r="N11">
-        <v>1.78907989050154</v>
+        <v>5.420921</v>
       </c>
       <c r="O11">
-        <v>0.2444081940934112</v>
+        <v>0.2218360938436415</v>
       </c>
       <c r="P11">
-        <v>0.2444081940934112</v>
+        <v>0.2218360938436415</v>
       </c>
       <c r="Q11">
-        <v>12.38787297503897</v>
+        <v>10.43859354027478</v>
       </c>
       <c r="R11">
-        <v>12.38787297503897</v>
+        <v>93.947341862473</v>
       </c>
       <c r="S11">
-        <v>0.1281572522605096</v>
+        <v>0.08573432273519065</v>
       </c>
       <c r="T11">
-        <v>0.1281572522605096</v>
+        <v>0.08573432273519066</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.92415863640736</v>
+        <v>5.776837666666666</v>
       </c>
       <c r="H12">
-        <v>6.92415863640736</v>
+        <v>17.330513</v>
       </c>
       <c r="I12">
-        <v>0.5243574289147146</v>
+        <v>0.3864759843617668</v>
       </c>
       <c r="J12">
-        <v>0.5243574289147146</v>
+        <v>0.3864759843617669</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.695135889133433</v>
+        <v>0.7227113333333334</v>
       </c>
       <c r="N12">
-        <v>0.695135889133433</v>
+        <v>2.168134</v>
       </c>
       <c r="O12">
-        <v>0.09496328711458053</v>
+        <v>0.08872484537029592</v>
       </c>
       <c r="P12">
-        <v>0.09496328711458053</v>
+        <v>0.08872484537029593</v>
       </c>
       <c r="Q12">
-        <v>4.81323117021997</v>
+        <v>4.174986052526889</v>
       </c>
       <c r="R12">
-        <v>4.81323117021997</v>
+        <v>37.574874472742</v>
       </c>
       <c r="S12">
-        <v>0.04979470507269129</v>
+        <v>0.03429002195183067</v>
       </c>
       <c r="T12">
-        <v>0.04979470507269129</v>
+        <v>0.03429002195183067</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>6.92415863640736</v>
+        <v>5.776837666666666</v>
       </c>
       <c r="H13">
-        <v>6.92415863640736</v>
+        <v>17.330513</v>
       </c>
       <c r="I13">
-        <v>0.5243574289147146</v>
+        <v>0.3864759843617668</v>
       </c>
       <c r="J13">
-        <v>0.5243574289147146</v>
+        <v>0.3864759843617669</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.494986693767649</v>
+        <v>0.5517653333333333</v>
       </c>
       <c r="N13">
-        <v>0.494986693767649</v>
+        <v>1.655296</v>
       </c>
       <c r="O13">
-        <v>0.06762068288079912</v>
+        <v>0.06773837855135768</v>
       </c>
       <c r="P13">
-        <v>0.06762068288079912</v>
+        <v>0.06773837855135768</v>
       </c>
       <c r="Q13">
-        <v>3.427366390557992</v>
+        <v>3.187458760760889</v>
       </c>
       <c r="R13">
-        <v>3.427366390557992</v>
+        <v>28.687128846848</v>
       </c>
       <c r="S13">
-        <v>0.03545740741683308</v>
+        <v>0.02617925652970595</v>
       </c>
       <c r="T13">
-        <v>0.03545740741683308</v>
+        <v>0.02617925652970596</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.813038712429493</v>
+        <v>0.6296233333333333</v>
       </c>
       <c r="H14">
-        <v>0.813038712429493</v>
+        <v>1.88887</v>
       </c>
       <c r="I14">
-        <v>0.06157035262248975</v>
+        <v>0.04212240529645086</v>
       </c>
       <c r="J14">
-        <v>0.06157035262248975</v>
+        <v>0.04212240529645087</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.20205507319631</v>
+        <v>2.760188</v>
       </c>
       <c r="N14">
-        <v>2.20205507319631</v>
+        <v>8.280564</v>
       </c>
       <c r="O14">
-        <v>0.3008251932132939</v>
+        <v>0.3388590190822334</v>
       </c>
       <c r="P14">
-        <v>0.3008251932132939</v>
+        <v>0.3388590190822334</v>
       </c>
       <c r="Q14">
-        <v>1.790356021410361</v>
+        <v>1.737878769186667</v>
       </c>
       <c r="R14">
-        <v>1.790356021410361</v>
+        <v>15.64090892268</v>
       </c>
       <c r="S14">
-        <v>0.01852191322387112</v>
+        <v>0.01427355694013961</v>
       </c>
       <c r="T14">
-        <v>0.01852191322387112</v>
+        <v>0.01427355694013961</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.813038712429493</v>
+        <v>0.6296233333333333</v>
       </c>
       <c r="H15">
-        <v>0.813038712429493</v>
+        <v>1.88887</v>
       </c>
       <c r="I15">
-        <v>0.06157035262248975</v>
+        <v>0.04212240529645086</v>
       </c>
       <c r="J15">
-        <v>0.06157035262248975</v>
+        <v>0.04212240529645087</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.825706581674614</v>
+        <v>0.8595383333333334</v>
       </c>
       <c r="N15">
-        <v>0.825706581674614</v>
+        <v>2.578615</v>
       </c>
       <c r="O15">
-        <v>0.1128006946752736</v>
+        <v>0.1055226370438938</v>
       </c>
       <c r="P15">
-        <v>0.1128006946752736</v>
+        <v>0.1055226370438938</v>
       </c>
       <c r="Q15">
-        <v>0.6713314160092861</v>
+        <v>0.5411853905611111</v>
       </c>
       <c r="R15">
-        <v>0.6713314160092861</v>
+        <v>4.87066851505</v>
       </c>
       <c r="S15">
-        <v>0.006945178547218397</v>
+        <v>0.004444867285513173</v>
       </c>
       <c r="T15">
-        <v>0.006945178547218397</v>
+        <v>0.004444867285513174</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.813038712429493</v>
+        <v>0.6296233333333333</v>
       </c>
       <c r="H16">
-        <v>0.813038712429493</v>
+        <v>1.88887</v>
       </c>
       <c r="I16">
-        <v>0.06157035262248975</v>
+        <v>0.04212240529645086</v>
       </c>
       <c r="J16">
-        <v>0.06157035262248975</v>
+        <v>0.04212240529645087</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.31308460060731</v>
+        <v>1.444358333333333</v>
       </c>
       <c r="N16">
-        <v>1.31308460060731</v>
+        <v>4.333075</v>
       </c>
       <c r="O16">
-        <v>0.1793819480226417</v>
+        <v>0.1773190261085777</v>
       </c>
       <c r="P16">
-        <v>0.1793819480226417</v>
+        <v>0.1773190261085777</v>
       </c>
       <c r="Q16">
-        <v>1.067588612988762</v>
+        <v>0.9094017083611111</v>
       </c>
       <c r="R16">
-        <v>1.067588612988762</v>
+        <v>8.184615375250001</v>
       </c>
       <c r="S16">
-        <v>0.01104460979386318</v>
+        <v>0.007469103884517461</v>
       </c>
       <c r="T16">
-        <v>0.01104460979386318</v>
+        <v>0.007469103884517462</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" t="s">
-        <v>27</v>
-      </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.813038712429493</v>
+        <v>0.6296233333333333</v>
       </c>
       <c r="H17">
-        <v>0.813038712429493</v>
+        <v>1.88887</v>
       </c>
       <c r="I17">
-        <v>0.06157035262248975</v>
+        <v>0.04212240529645086</v>
       </c>
       <c r="J17">
-        <v>0.06157035262248975</v>
+        <v>0.04212240529645087</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.78907989050154</v>
+        <v>1.806973666666667</v>
       </c>
       <c r="N17">
-        <v>1.78907989050154</v>
+        <v>5.420921</v>
       </c>
       <c r="O17">
-        <v>0.2444081940934112</v>
+        <v>0.2218360938436415</v>
       </c>
       <c r="P17">
-        <v>0.2444081940934112</v>
+        <v>0.2218360938436415</v>
       </c>
       <c r="Q17">
-        <v>1.45459121060687</v>
+        <v>1.137712783252222</v>
       </c>
       <c r="R17">
-        <v>1.45459121060687</v>
+        <v>10.23941504927</v>
       </c>
       <c r="S17">
-        <v>0.01504829869415724</v>
+        <v>0.009344269854263376</v>
       </c>
       <c r="T17">
-        <v>0.01504829869415724</v>
+        <v>0.009344269854263378</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.813038712429493</v>
+        <v>0.6296233333333333</v>
       </c>
       <c r="H18">
-        <v>0.813038712429493</v>
+        <v>1.88887</v>
       </c>
       <c r="I18">
-        <v>0.06157035262248975</v>
+        <v>0.04212240529645086</v>
       </c>
       <c r="J18">
-        <v>0.06157035262248975</v>
+        <v>0.04212240529645087</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.695135889133433</v>
+        <v>0.7227113333333334</v>
       </c>
       <c r="N18">
-        <v>0.695135889133433</v>
+        <v>2.168134</v>
       </c>
       <c r="O18">
-        <v>0.09496328711458053</v>
+        <v>0.08872484537029592</v>
       </c>
       <c r="P18">
-        <v>0.09496328711458053</v>
+        <v>0.08872484537029593</v>
       </c>
       <c r="Q18">
-        <v>0.5651723882645772</v>
+        <v>0.4550359187311111</v>
       </c>
       <c r="R18">
-        <v>0.5651723882645772</v>
+        <v>4.095323268580001</v>
       </c>
       <c r="S18">
-        <v>0.005846923073835461</v>
+        <v>0.003737303896552536</v>
       </c>
       <c r="T18">
-        <v>0.005846923073835461</v>
+        <v>0.003737303896552537</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,1177 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.6296233333333333</v>
+      </c>
+      <c r="H19">
+        <v>1.88887</v>
+      </c>
+      <c r="I19">
+        <v>0.04212240529645086</v>
+      </c>
+      <c r="J19">
+        <v>0.04212240529645087</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.5517653333333333</v>
+      </c>
+      <c r="N19">
+        <v>1.655296</v>
+      </c>
+      <c r="O19">
+        <v>0.06773837855135768</v>
+      </c>
+      <c r="P19">
+        <v>0.06773837855135768</v>
+      </c>
+      <c r="Q19">
+        <v>0.3474043283911111</v>
+      </c>
+      <c r="R19">
+        <v>3.12663895552</v>
+      </c>
+      <c r="S19">
+        <v>0.002853303435464702</v>
+      </c>
+      <c r="T19">
+        <v>0.002853303435464703</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.352184</v>
+      </c>
+      <c r="H20">
+        <v>1.056552</v>
+      </c>
+      <c r="I20">
+        <v>0.0235614476172398</v>
+      </c>
+      <c r="J20">
+        <v>0.02356144761723981</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>2.760188</v>
+      </c>
+      <c r="N20">
+        <v>8.280564</v>
+      </c>
+      <c r="O20">
+        <v>0.3388590190822334</v>
+      </c>
+      <c r="P20">
+        <v>0.3388590190822334</v>
+      </c>
+      <c r="Q20">
+        <v>0.9720940505919999</v>
+      </c>
+      <c r="R20">
+        <v>8.748846455328</v>
+      </c>
+      <c r="S20">
+        <v>0.007984009027735304</v>
+      </c>
+      <c r="T20">
+        <v>0.007984009027735306</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.352184</v>
+      </c>
+      <c r="H21">
+        <v>1.056552</v>
+      </c>
+      <c r="I21">
+        <v>0.0235614476172398</v>
+      </c>
+      <c r="J21">
+        <v>0.02356144761723981</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.8595383333333334</v>
+      </c>
+      <c r="N21">
+        <v>2.578615</v>
+      </c>
+      <c r="O21">
+        <v>0.1055226370438938</v>
+      </c>
+      <c r="P21">
+        <v>0.1055226370438938</v>
+      </c>
+      <c r="Q21">
+        <v>0.3027156483866667</v>
+      </c>
+      <c r="R21">
+        <v>2.72444083548</v>
+      </c>
+      <c r="S21">
+        <v>0.002486266085142712</v>
+      </c>
+      <c r="T21">
+        <v>0.002486266085142712</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.352184</v>
+      </c>
+      <c r="H22">
+        <v>1.056552</v>
+      </c>
+      <c r="I22">
+        <v>0.0235614476172398</v>
+      </c>
+      <c r="J22">
+        <v>0.02356144761723981</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1.444358333333333</v>
+      </c>
+      <c r="N22">
+        <v>4.333075</v>
+      </c>
+      <c r="O22">
+        <v>0.1773190261085777</v>
+      </c>
+      <c r="P22">
+        <v>0.1773190261085777</v>
+      </c>
+      <c r="Q22">
+        <v>0.5086798952666667</v>
+      </c>
+      <c r="R22">
+        <v>4.578119057399999</v>
+      </c>
+      <c r="S22">
+        <v>0.00417789294519723</v>
+      </c>
+      <c r="T22">
+        <v>0.004177892945197231</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.352184</v>
+      </c>
+      <c r="H23">
+        <v>1.056552</v>
+      </c>
+      <c r="I23">
+        <v>0.0235614476172398</v>
+      </c>
+      <c r="J23">
+        <v>0.02356144761723981</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1.806973666666667</v>
+      </c>
+      <c r="N23">
+        <v>5.420921</v>
+      </c>
+      <c r="O23">
+        <v>0.2218360938436415</v>
+      </c>
+      <c r="P23">
+        <v>0.2218360938436415</v>
+      </c>
+      <c r="Q23">
+        <v>0.6363872138213333</v>
+      </c>
+      <c r="R23">
+        <v>5.727484924392</v>
+      </c>
+      <c r="S23">
+        <v>0.005226779504710053</v>
+      </c>
+      <c r="T23">
+        <v>0.005226779504710054</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.352184</v>
+      </c>
+      <c r="H24">
+        <v>1.056552</v>
+      </c>
+      <c r="I24">
+        <v>0.0235614476172398</v>
+      </c>
+      <c r="J24">
+        <v>0.02356144761723981</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.7227113333333334</v>
+      </c>
+      <c r="N24">
+        <v>2.168134</v>
+      </c>
+      <c r="O24">
+        <v>0.08872484537029592</v>
+      </c>
+      <c r="P24">
+        <v>0.08872484537029593</v>
+      </c>
+      <c r="Q24">
+        <v>0.2545273682186667</v>
+      </c>
+      <c r="R24">
+        <v>2.290746313968</v>
+      </c>
+      <c r="S24">
+        <v>0.002090485796539929</v>
+      </c>
+      <c r="T24">
+        <v>0.00209048579653993</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.352184</v>
+      </c>
+      <c r="H25">
+        <v>1.056552</v>
+      </c>
+      <c r="I25">
+        <v>0.0235614476172398</v>
+      </c>
+      <c r="J25">
+        <v>0.02356144761723981</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.5517653333333333</v>
+      </c>
+      <c r="N25">
+        <v>1.655296</v>
+      </c>
+      <c r="O25">
+        <v>0.06773837855135768</v>
+      </c>
+      <c r="P25">
+        <v>0.06773837855135768</v>
+      </c>
+      <c r="Q25">
+        <v>0.1943229221546667</v>
+      </c>
+      <c r="R25">
+        <v>1.748906299392</v>
+      </c>
+      <c r="S25">
+        <v>0.001596014257914574</v>
+      </c>
+      <c r="T25">
+        <v>0.001596014257914574</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>7.315879666666667</v>
+      </c>
+      <c r="H26">
+        <v>21.947639</v>
+      </c>
+      <c r="I26">
+        <v>0.4894393712951084</v>
+      </c>
+      <c r="J26">
+        <v>0.4894393712951085</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>2.760188</v>
+      </c>
+      <c r="N26">
+        <v>8.280564</v>
+      </c>
+      <c r="O26">
+        <v>0.3388590190822334</v>
+      </c>
+      <c r="P26">
+        <v>0.3388590190822334</v>
+      </c>
+      <c r="Q26">
+        <v>20.19320326537733</v>
+      </c>
+      <c r="R26">
+        <v>181.738829388396</v>
+      </c>
+      <c r="S26">
+        <v>0.1658509452572855</v>
+      </c>
+      <c r="T26">
+        <v>0.1658509452572855</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>7.315879666666667</v>
+      </c>
+      <c r="H27">
+        <v>21.947639</v>
+      </c>
+      <c r="I27">
+        <v>0.4894393712951084</v>
+      </c>
+      <c r="J27">
+        <v>0.4894393712951085</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0.8595383333333334</v>
+      </c>
+      <c r="N27">
+        <v>2.578615</v>
+      </c>
+      <c r="O27">
+        <v>0.1055226370438938</v>
+      </c>
+      <c r="P27">
+        <v>0.1055226370438938</v>
+      </c>
+      <c r="Q27">
+        <v>6.288279015553889</v>
+      </c>
+      <c r="R27">
+        <v>56.594511139985</v>
+      </c>
+      <c r="S27">
+        <v>0.05164693313216529</v>
+      </c>
+      <c r="T27">
+        <v>0.0516469331321653</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
         <v>22</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>0.813038712429493</v>
-      </c>
-      <c r="H19">
-        <v>0.813038712429493</v>
-      </c>
-      <c r="I19">
-        <v>0.06157035262248975</v>
-      </c>
-      <c r="J19">
-        <v>0.06157035262248975</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>0.494986693767649</v>
-      </c>
-      <c r="N19">
-        <v>0.494986693767649</v>
-      </c>
-      <c r="O19">
-        <v>0.06762068288079912</v>
-      </c>
-      <c r="P19">
-        <v>0.06762068288079912</v>
-      </c>
-      <c r="Q19">
-        <v>0.4024433441705811</v>
-      </c>
-      <c r="R19">
-        <v>0.4024433441705811</v>
-      </c>
-      <c r="S19">
-        <v>0.004163429289544358</v>
-      </c>
-      <c r="T19">
-        <v>0.004163429289544358</v>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>7.315879666666667</v>
+      </c>
+      <c r="H28">
+        <v>21.947639</v>
+      </c>
+      <c r="I28">
+        <v>0.4894393712951084</v>
+      </c>
+      <c r="J28">
+        <v>0.4894393712951085</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>1.444358333333333</v>
+      </c>
+      <c r="N28">
+        <v>4.333075</v>
+      </c>
+      <c r="O28">
+        <v>0.1773190261085777</v>
+      </c>
+      <c r="P28">
+        <v>0.1773190261085777</v>
+      </c>
+      <c r="Q28">
+        <v>10.56675176221389</v>
+      </c>
+      <c r="R28">
+        <v>95.10076585992499</v>
+      </c>
+      <c r="S28">
+        <v>0.08678691265724318</v>
+      </c>
+      <c r="T28">
+        <v>0.0867869126572432</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>7.315879666666667</v>
+      </c>
+      <c r="H29">
+        <v>21.947639</v>
+      </c>
+      <c r="I29">
+        <v>0.4894393712951084</v>
+      </c>
+      <c r="J29">
+        <v>0.4894393712951085</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>1.806973666666667</v>
+      </c>
+      <c r="N29">
+        <v>5.420921</v>
+      </c>
+      <c r="O29">
+        <v>0.2218360938436415</v>
+      </c>
+      <c r="P29">
+        <v>0.2218360938436415</v>
+      </c>
+      <c r="Q29">
+        <v>13.21960190616878</v>
+      </c>
+      <c r="R29">
+        <v>118.976417155519</v>
+      </c>
+      <c r="S29">
+        <v>0.1085753183013946</v>
+      </c>
+      <c r="T29">
+        <v>0.1085753183013946</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>7.315879666666667</v>
+      </c>
+      <c r="H30">
+        <v>21.947639</v>
+      </c>
+      <c r="I30">
+        <v>0.4894393712951084</v>
+      </c>
+      <c r="J30">
+        <v>0.4894393712951085</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0.7227113333333334</v>
+      </c>
+      <c r="N30">
+        <v>2.168134</v>
+      </c>
+      <c r="O30">
+        <v>0.08872484537029592</v>
+      </c>
+      <c r="P30">
+        <v>0.08872484537029593</v>
+      </c>
+      <c r="Q30">
+        <v>5.287269148402889</v>
+      </c>
+      <c r="R30">
+        <v>47.585422335626</v>
+      </c>
+      <c r="S30">
+        <v>0.04342543253629335</v>
+      </c>
+      <c r="T30">
+        <v>0.04342543253629336</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>7.315879666666667</v>
+      </c>
+      <c r="H31">
+        <v>21.947639</v>
+      </c>
+      <c r="I31">
+        <v>0.4894393712951084</v>
+      </c>
+      <c r="J31">
+        <v>0.4894393712951085</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0.5517653333333333</v>
+      </c>
+      <c r="N31">
+        <v>1.655296</v>
+      </c>
+      <c r="O31">
+        <v>0.06773837855135768</v>
+      </c>
+      <c r="P31">
+        <v>0.06773837855135768</v>
+      </c>
+      <c r="Q31">
+        <v>4.036648782904889</v>
+      </c>
+      <c r="R31">
+        <v>36.329839046144</v>
+      </c>
+      <c r="S31">
+        <v>0.03315382941072657</v>
+      </c>
+      <c r="T31">
+        <v>0.03315382941072657</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0.8224886666666666</v>
+      </c>
+      <c r="H32">
+        <v>2.467466</v>
+      </c>
+      <c r="I32">
+        <v>0.0550252812036892</v>
+      </c>
+      <c r="J32">
+        <v>0.05502528120368921</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>2.760188</v>
+      </c>
+      <c r="N32">
+        <v>8.280564</v>
+      </c>
+      <c r="O32">
+        <v>0.3388590190822334</v>
+      </c>
+      <c r="P32">
+        <v>0.3388590190822334</v>
+      </c>
+      <c r="Q32">
+        <v>2.270223347869333</v>
+      </c>
+      <c r="R32">
+        <v>20.432010130824</v>
+      </c>
+      <c r="S32">
+        <v>0.01864581281340618</v>
+      </c>
+      <c r="T32">
+        <v>0.01864581281340618</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0.8224886666666666</v>
+      </c>
+      <c r="H33">
+        <v>2.467466</v>
+      </c>
+      <c r="I33">
+        <v>0.0550252812036892</v>
+      </c>
+      <c r="J33">
+        <v>0.05502528120368921</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>0.8595383333333334</v>
+      </c>
+      <c r="N33">
+        <v>2.578615</v>
+      </c>
+      <c r="O33">
+        <v>0.1055226370438938</v>
+      </c>
+      <c r="P33">
+        <v>0.1055226370438938</v>
+      </c>
+      <c r="Q33">
+        <v>0.7069605377322222</v>
+      </c>
+      <c r="R33">
+        <v>6.36264483959</v>
+      </c>
+      <c r="S33">
+        <v>0.005806412776695086</v>
+      </c>
+      <c r="T33">
+        <v>0.005806412776695087</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0.8224886666666666</v>
+      </c>
+      <c r="H34">
+        <v>2.467466</v>
+      </c>
+      <c r="I34">
+        <v>0.0550252812036892</v>
+      </c>
+      <c r="J34">
+        <v>0.05502528120368921</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>1.444358333333333</v>
+      </c>
+      <c r="N34">
+        <v>4.333075</v>
+      </c>
+      <c r="O34">
+        <v>0.1773190261085777</v>
+      </c>
+      <c r="P34">
+        <v>0.1773190261085777</v>
+      </c>
+      <c r="Q34">
+        <v>1.187968359772222</v>
+      </c>
+      <c r="R34">
+        <v>10.69171523795</v>
+      </c>
+      <c r="S34">
+        <v>0.009757029274388795</v>
+      </c>
+      <c r="T34">
+        <v>0.009757029274388795</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0.8224886666666666</v>
+      </c>
+      <c r="H35">
+        <v>2.467466</v>
+      </c>
+      <c r="I35">
+        <v>0.0550252812036892</v>
+      </c>
+      <c r="J35">
+        <v>0.05502528120368921</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>1.806973666666667</v>
+      </c>
+      <c r="N35">
+        <v>5.420921</v>
+      </c>
+      <c r="O35">
+        <v>0.2218360938436415</v>
+      </c>
+      <c r="P35">
+        <v>0.2218360938436415</v>
+      </c>
+      <c r="Q35">
+        <v>1.486215361798444</v>
+      </c>
+      <c r="R35">
+        <v>13.375938256186</v>
+      </c>
+      <c r="S35">
+        <v>0.01220659344487436</v>
+      </c>
+      <c r="T35">
+        <v>0.01220659344487436</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0.8224886666666666</v>
+      </c>
+      <c r="H36">
+        <v>2.467466</v>
+      </c>
+      <c r="I36">
+        <v>0.0550252812036892</v>
+      </c>
+      <c r="J36">
+        <v>0.05502528120368921</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>0.7227113333333334</v>
+      </c>
+      <c r="N36">
+        <v>2.168134</v>
+      </c>
+      <c r="O36">
+        <v>0.08872484537029592</v>
+      </c>
+      <c r="P36">
+        <v>0.08872484537029593</v>
+      </c>
+      <c r="Q36">
+        <v>0.5944218809382222</v>
+      </c>
+      <c r="R36">
+        <v>5.349796928444</v>
+      </c>
+      <c r="S36">
+        <v>0.004882109566254375</v>
+      </c>
+      <c r="T36">
+        <v>0.004882109566254376</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0.8224886666666666</v>
+      </c>
+      <c r="H37">
+        <v>2.467466</v>
+      </c>
+      <c r="I37">
+        <v>0.0550252812036892</v>
+      </c>
+      <c r="J37">
+        <v>0.05502528120368921</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>0.5517653333333333</v>
+      </c>
+      <c r="N37">
+        <v>1.655296</v>
+      </c>
+      <c r="O37">
+        <v>0.06773837855135768</v>
+      </c>
+      <c r="P37">
+        <v>0.06773837855135768</v>
+      </c>
+      <c r="Q37">
+        <v>0.4538207333262222</v>
+      </c>
+      <c r="R37">
+        <v>4.084386599936</v>
+      </c>
+      <c r="S37">
+        <v>0.003727323328070406</v>
+      </c>
+      <c r="T37">
+        <v>0.003727323328070406</v>
       </c>
     </row>
   </sheetData>
